--- a/GREITS_N.xlsx
+++ b/GREITS_N.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20361"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Download\19.06.2024\Daily Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rohit Ingole_WFH\Daily Market Updates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA8C887F-4163-45BE-9D13-22416AD2BF41}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2580,7 +2581,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="#,##0.00%"/>
     <numFmt numFmtId="165" formatCode="##0"/>
@@ -2746,35 +2747,35 @@
     </xf>
   </cellXfs>
   <cellStyles count="29">
-    <cellStyle name="bolddate" xfId="25"/>
-    <cellStyle name="boldleftdate" xfId="27"/>
-    <cellStyle name="boldnoDecimalDigits" xfId="10"/>
-    <cellStyle name="boldpercentage" xfId="6"/>
-    <cellStyle name="boldrightdate" xfId="26"/>
-    <cellStyle name="boldthreeDecimalDigits" xfId="12"/>
-    <cellStyle name="boldtwoDecimalDigits" xfId="11"/>
-    <cellStyle name="date" xfId="22"/>
-    <cellStyle name="defaultsheetstyle" xfId="28"/>
-    <cellStyle name="disclaimer" xfId="21"/>
-    <cellStyle name="leftdate" xfId="24"/>
-    <cellStyle name="leftplainBoldText" xfId="19"/>
-    <cellStyle name="leftplainText" xfId="17"/>
-    <cellStyle name="noDecimalDigits" xfId="7"/>
+    <cellStyle name="bolddate" xfId="25" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="boldleftdate" xfId="27" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="boldnoDecimalDigits" xfId="10" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="boldpercentage" xfId="6" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="boldrightdate" xfId="26" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="boldthreeDecimalDigits" xfId="12" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="boldtwoDecimalDigits" xfId="11" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="date" xfId="22" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="defaultsheetstyle" xfId="28" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="disclaimer" xfId="21" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="leftdate" xfId="24" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="leftplainBoldText" xfId="19" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="leftplainText" xfId="17" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="noDecimalDigits" xfId="7" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="percentage" xfId="5"/>
-    <cellStyle name="plainBoldText" xfId="14"/>
-    <cellStyle name="plainBoldValues" xfId="16"/>
-    <cellStyle name="plainText" xfId="13"/>
-    <cellStyle name="plainValues" xfId="15"/>
-    <cellStyle name="rightdate" xfId="23"/>
-    <cellStyle name="rightplainBoldText" xfId="20"/>
-    <cellStyle name="rightplainText" xfId="18"/>
-    <cellStyle name="sheetReportTitle" xfId="2"/>
-    <cellStyle name="sheetTitle" xfId="1"/>
-    <cellStyle name="tableHeader" xfId="3"/>
-    <cellStyle name="tablesubHeader" xfId="4"/>
-    <cellStyle name="threeDecimalDigits" xfId="9"/>
-    <cellStyle name="twoDecimalDigits" xfId="8"/>
+    <cellStyle name="percentage" xfId="5" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="plainBoldText" xfId="14" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="plainBoldValues" xfId="16" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="plainText" xfId="13" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="plainValues" xfId="15" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="rightdate" xfId="23" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="rightplainBoldText" xfId="20" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="rightplainText" xfId="18" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="sheetReportTitle" xfId="2" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="sheetTitle" xfId="1" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="tableHeader" xfId="3" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="tablesubHeader" xfId="4" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="threeDecimalDigits" xfId="9" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="twoDecimalDigits" xfId="8" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3051,7 +3052,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -3267,10 +3268,10 @@
         <v>0</v>
       </c>
       <c r="S3" s="6">
-        <v>219.10000610351562</v>
+        <v>219.10000610351563</v>
       </c>
       <c r="T3" s="6">
-        <v>192.77999877929687</v>
+        <v>192.77999877929688</v>
       </c>
     </row>
     <row r="4" spans="1:20" s="4" customFormat="1" ht="12.75">
@@ -3704,7 +3705,7 @@
         <v>23.910433264344011</v>
       </c>
       <c r="T10" s="6">
-        <v>23.734817504882812</v>
+        <v>23.734817504882813</v>
       </c>
     </row>
     <row r="11" spans="1:20" s="4" customFormat="1" ht="12.75">
@@ -3828,7 +3829,7 @@
         <v>164.99000549316406</v>
       </c>
       <c r="T12" s="6">
-        <v>159.27999877929687</v>
+        <v>159.27999877929688</v>
       </c>
     </row>
     <row r="13" spans="1:20" s="4" customFormat="1" ht="12.75">
@@ -3952,7 +3953,7 @@
         <v>203</v>
       </c>
       <c r="T14" s="6">
-        <v>202.39999389648437</v>
+        <v>202.39999389648438</v>
       </c>
     </row>
     <row r="15" spans="1:20" s="4" customFormat="1" ht="12.75">
@@ -4445,10 +4446,10 @@
         <v>0</v>
       </c>
       <c r="S22" s="6">
-        <v>284.76998901367187</v>
+        <v>284.76998901367188</v>
       </c>
       <c r="T22" s="6">
-        <v>284.58999633789062</v>
+        <v>284.58999633789063</v>
       </c>
     </row>
     <row r="23" spans="1:20" s="4" customFormat="1" ht="12.75">
@@ -5127,7 +5128,7 @@
         <v>0</v>
       </c>
       <c r="S33" s="6">
-        <v>122.22000122070312</v>
+        <v>122.22000122070313</v>
       </c>
       <c r="T33" s="6">
         <v>114.69000244140625</v>
@@ -6057,7 +6058,7 @@
         <v>0</v>
       </c>
       <c r="S48" s="6">
-        <v>188.85000610351562</v>
+        <v>188.85000610351563</v>
       </c>
       <c r="T48" s="6">
         <v>166.66999816894531</v>
@@ -6923,7 +6924,7 @@
         <v>0</v>
       </c>
       <c r="S62" s="6">
-        <v>122.91000366210937</v>
+        <v>122.91000366210938</v>
       </c>
       <c r="T62" s="6">
         <v>99.040000915527344</v>
@@ -7131,7 +7132,7 @@
         <v>19406058</v>
       </c>
       <c r="G66" s="6">
-        <v>6.5229110717773437</v>
+        <v>6.5229110717773438</v>
       </c>
       <c r="H66" s="6">
         <v>1.2725586266052251</v>
@@ -10500,7 +10501,7 @@
         <v>475.53636839351128</v>
       </c>
       <c r="T120" s="6">
-        <v>431.80520629882812</v>
+        <v>431.80520629882813</v>
       </c>
     </row>
     <row r="121" spans="1:20" s="4" customFormat="1" ht="12.75">
@@ -10866,7 +10867,7 @@
         <v>1298.4619746261251</v>
       </c>
       <c r="T126" s="6">
-        <v>1001.8388061523437</v>
+        <v>1001.8388061523438</v>
       </c>
     </row>
     <row r="127" spans="1:20" s="4" customFormat="1" ht="12.75">
@@ -11755,7 +11756,7 @@
         <v>5376548.5</v>
       </c>
       <c r="G141" s="6">
-        <v>5.6485977172851562</v>
+        <v>5.6485977172851563</v>
       </c>
       <c r="H141" s="6">
         <v>1.0554855290326071</v>
@@ -12348,7 +12349,7 @@
         <v>617.97752808988764</v>
       </c>
       <c r="T150" s="6">
-        <v>495.21273803710937</v>
+        <v>495.21273803710938</v>
       </c>
     </row>
     <row r="151" spans="1:20" s="4" customFormat="1" ht="12.75">
@@ -14058,7 +14059,7 @@
         <v>2.8556731334315111</v>
       </c>
       <c r="T178" s="6">
-        <v>2.3022842407226562</v>
+        <v>2.3022842407226563</v>
       </c>
     </row>
     <row r="179" spans="1:20" s="4" customFormat="1" ht="12.75">
@@ -14267,7 +14268,7 @@
         <v>1585670.375</v>
       </c>
       <c r="G182" s="6">
-        <v>8.3228073120117187</v>
+        <v>8.3228073120117188</v>
       </c>
       <c r="H182" s="6">
         <v>1.8987267046667982</v>
@@ -14571,7 +14572,7 @@
         <v>9626368</v>
       </c>
       <c r="G187" s="6">
-        <v>4.8859939575195312</v>
+        <v>4.8859939575195313</v>
       </c>
       <c r="H187" s="6">
         <v>-0.16260534515062403</v>
@@ -16400,7 +16401,7 @@
         <v>10.743128102541307</v>
       </c>
       <c r="T216" s="6">
-        <v>8.5641403198242187</v>
+        <v>8.5641403198242188</v>
       </c>
     </row>
     <row r="217" spans="1:20" s="4" customFormat="1" ht="12.75">
@@ -16581,7 +16582,7 @@
         <v>0</v>
       </c>
       <c r="S219" s="6">
-        <v>8.9300003051757812</v>
+        <v>8.9300003051757813</v>
       </c>
       <c r="T219" s="6">
         <v>8.0200004577636719</v>
@@ -18664,7 +18665,7 @@
         <v>423.41040462427748</v>
       </c>
       <c r="T253" s="6">
-        <v>381.07919311523437</v>
+        <v>381.07919311523438</v>
       </c>
     </row>
     <row r="254" spans="1:20" s="4" customFormat="1" ht="12.75">
@@ -19034,7 +19035,7 @@
         <v>1224.3308313270074</v>
       </c>
       <c r="T259" s="6">
-        <v>1001.8388061523437</v>
+        <v>1001.8388061523438</v>
       </c>
     </row>
     <row r="260" spans="1:20" s="4" customFormat="1" ht="12.75">
@@ -20750,7 +20751,7 @@
         <v>337.14782356775549</v>
       </c>
       <c r="T287" s="6">
-        <v>285.33383178710937</v>
+        <v>285.33383178710938</v>
       </c>
     </row>
     <row r="288" spans="1:20" s="4" customFormat="1" ht="12.75">
@@ -20951,7 +20952,7 @@
         <v>1087832.875</v>
       </c>
       <c r="G291" s="6">
-        <v>9.2879257202148437</v>
+        <v>9.2879257202148438</v>
       </c>
       <c r="H291" s="6">
         <v>-0.15604607185822902</v>
@@ -22916,7 +22917,7 @@
         <v>2.6664533503986352</v>
       </c>
       <c r="T323" s="6">
-        <v>2.3028945922851562</v>
+        <v>2.3028945922851563</v>
       </c>
     </row>
     <row r="324" spans="1:20" s="4" customFormat="1" ht="12.75">
